--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -60,16 +60,7 @@
     <t>Lista_1_EX_7</t>
   </si>
   <si>
-    <t>Multiplicando dois números</t>
-  </si>
-  <si>
     <t>Lista_1_EX_8</t>
-  </si>
-  <si>
-    <t>Divisor de dois números</t>
-  </si>
-  <si>
-    <t>Subtrator de dois números</t>
   </si>
   <si>
     <t>Lista_1_EX_9</t>
@@ -212,13 +203,28 @@
     <t>Is the number even or odd ?  &gt;  With this code the user can identify whether the number is even or odd.</t>
   </si>
   <si>
-    <t>List_1_EX_6 - Sum between two numbers   &gt; In this document, we have the code to make the sum between two numbers.</t>
-  </si>
-  <si>
-    <t>List_1_EX_7 - Number Multiplier  &gt; This document has the code to multiply numbers</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &gt;  This code can be used for validate whether the year is a leap year or not.</t>
+  </si>
+  <si>
+    <t>List_1_EX_6 - Sum operator   &gt; In this document, we have the code to make the sum of numbers.</t>
+  </si>
+  <si>
+    <t>List_1_EX_7 - Multiplication Operator  &gt; This document has the code to multiply numbers</t>
+  </si>
+  <si>
+    <t>Division operator    In this document you can find a code with division operation</t>
+  </si>
+  <si>
+    <t>Operador de divisão</t>
+  </si>
+  <si>
+    <t>Operador de multiplicação</t>
+  </si>
+  <si>
+    <t>Operador de subtração</t>
+  </si>
+  <si>
+    <t>Operator subtraction  This document has a code with subtraction operator.</t>
   </si>
 </sst>
 </file>
@@ -604,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -642,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -651,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -659,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -668,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -676,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -685,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -693,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -702,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -710,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -719,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -736,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -747,13 +753,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -761,40 +767,44 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -806,10 +816,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -821,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -836,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -851,10 +861,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -866,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -882,10 +892,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -897,10 +907,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -912,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -929,10 +939,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -944,10 +954,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -959,10 +969,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -974,10 +984,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -989,16 +999,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1006,10 +1016,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1021,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -1036,10 +1046,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1051,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1060,10 +1070,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -225,6 +225,19 @@
   </si>
   <si>
     <t>Operator subtraction  This document has a code with subtraction operator.</t>
+  </si>
+  <si>
+    <t>Summing numbers reported by the user &gt; 
+In this code the user enters two numbers and the program sums the two.</t>
+  </si>
+  <si>
+    <t>Multiplying numbers reported by the user  &gt; In this document you find the code for muliplying numbers reported by the user.</t>
+  </si>
+  <si>
+    <t>With this list you can search for the code you need and identify quickly the name of the file you should download.</t>
+  </si>
+  <si>
+    <t>List of code</t>
   </si>
 </sst>
 </file>
@@ -610,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,6 +672,9 @@
       <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -676,6 +692,9 @@
       <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
@@ -796,7 +815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -809,7 +828,9 @@
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
@@ -824,7 +845,9 @@
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -192,52 +192,52 @@
     <t>Code result</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>Code analysis</t>
+  </si>
+  <si>
+    <t>Is the number even or odd ?  &gt;  With this code the user can identify whether the number is even or odd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt;  This code can be used for validate whether the year is a leap year or not.</t>
+  </si>
+  <si>
+    <t>List_1_EX_6 - Sum operator   &gt; In this document, we have the code to make the sum of numbers.</t>
+  </si>
+  <si>
+    <t>List_1_EX_7 - Multiplication Operator  &gt; This document has the code to multiply numbers</t>
+  </si>
+  <si>
+    <t>Division operator    In this document you can find a code with division operation</t>
+  </si>
+  <si>
+    <t>Operador de divisão</t>
+  </si>
+  <si>
+    <t>Operador de multiplicação</t>
+  </si>
+  <si>
+    <t>Operador de subtração</t>
+  </si>
+  <si>
+    <t>Operator subtraction  This document has a code with subtraction operator.</t>
+  </si>
+  <si>
+    <t>Summing numbers reported by the user &gt; 
+In this code the user enters two numbers and the program sums the two.</t>
+  </si>
+  <si>
+    <t>Multiplying numbers reported by the user  &gt; In this document you find the code for muliplying numbers reported by the user.</t>
+  </si>
+  <si>
+    <t>With this list you can search for the code you need and identify quickly the name of the file you should download.</t>
+  </si>
+  <si>
+    <t>List of code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting started with the basics  &gt;
 In this file you will find codes referring to: Identify operators 
 </t>
-  </si>
-  <si>
-    <t>Code analysis</t>
-  </si>
-  <si>
-    <t>Is the number even or odd ?  &gt;  With this code the user can identify whether the number is even or odd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &gt;  This code can be used for validate whether the year is a leap year or not.</t>
-  </si>
-  <si>
-    <t>List_1_EX_6 - Sum operator   &gt; In this document, we have the code to make the sum of numbers.</t>
-  </si>
-  <si>
-    <t>List_1_EX_7 - Multiplication Operator  &gt; This document has the code to multiply numbers</t>
-  </si>
-  <si>
-    <t>Division operator    In this document you can find a code with division operation</t>
-  </si>
-  <si>
-    <t>Operador de divisão</t>
-  </si>
-  <si>
-    <t>Operador de multiplicação</t>
-  </si>
-  <si>
-    <t>Operador de subtração</t>
-  </si>
-  <si>
-    <t>Operator subtraction  This document has a code with subtraction operator.</t>
-  </si>
-  <si>
-    <t>Summing numbers reported by the user &gt; 
-In this code the user enters two numbers and the program sums the two.</t>
-  </si>
-  <si>
-    <t>Multiplying numbers reported by the user  &gt; In this document you find the code for muliplying numbers reported by the user.</t>
-  </si>
-  <si>
-    <t>With this list you can search for the code you need and identify quickly the name of the file you should download.</t>
-  </si>
-  <si>
-    <t>List of code</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,7 +633,7 @@
     <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -670,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -693,7 +693,7 @@
         <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -772,13 +772,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -789,13 +789,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -806,13 +806,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -54,24 +54,6 @@
     <t>Somando dois números</t>
   </si>
   <si>
-    <t>Lista_1_EX_6</t>
-  </si>
-  <si>
-    <t>Lista_1_EX_7</t>
-  </si>
-  <si>
-    <t>Lista_1_EX_8</t>
-  </si>
-  <si>
-    <t>Lista_1_EX_9</t>
-  </si>
-  <si>
-    <t>Lista_1_EX_10</t>
-  </si>
-  <si>
-    <t>Lista_1_EX_11</t>
-  </si>
-  <si>
     <t>Lista_1_EX_12</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Quantidade de cédulas</t>
   </si>
   <si>
-    <t>List_1_EX_1_to_5</t>
-  </si>
-  <si>
     <t>Commit</t>
   </si>
   <si>
@@ -192,6 +171,11 @@
     <t>Code result</t>
   </si>
   <si>
+    <t xml:space="preserve">
+In this file you will find codes referring to: Identify operators 
+</t>
+  </si>
+  <si>
     <t>Code analysis</t>
   </si>
   <si>
@@ -199,12 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &gt;  This code can be used for validate whether the year is a leap year or not.</t>
-  </si>
-  <si>
-    <t>List_1_EX_6 - Sum operator   &gt; In this document, we have the code to make the sum of numbers.</t>
-  </si>
-  <si>
-    <t>List_1_EX_7 - Multiplication Operator  &gt; This document has the code to multiply numbers</t>
   </si>
   <si>
     <t>Division operator    In this document you can find a code with division operation</t>
@@ -235,9 +213,31 @@
     <t>List of code</t>
   </si>
   <si>
-    <t xml:space="preserve">Getting started with the basics  &gt;
-In this file you will find codes referring to: Identify operators 
-</t>
+    <t>1 - List_1_EX_1_to_5</t>
+  </si>
+  <si>
+    <t>7 - Lista_1_EX_7</t>
+  </si>
+  <si>
+    <t>8 - Lista_1_EX_8</t>
+  </si>
+  <si>
+    <t>9 - Lista_1_EX_9</t>
+  </si>
+  <si>
+    <t>Sum operator   &gt; In this document we have the code to make the sum of numbers.</t>
+  </si>
+  <si>
+    <t>Multiplication Operator  &gt; This document has the code to multiply numbers</t>
+  </si>
+  <si>
+    <t>List_1_EX_10</t>
+  </si>
+  <si>
+    <t>6 - List_1_EX_6</t>
+  </si>
+  <si>
+    <t>List_1_EX_11</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +627,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,7 +636,7 @@
     <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="128.85546875" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -653,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -661,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -670,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -681,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -690,10 +693,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -701,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -710,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -718,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -727,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -735,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -744,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -752,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -761,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -769,33 +772,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>63</v>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -803,16 +807,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -820,16 +824,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -837,16 +841,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -854,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -869,10 +873,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -884,10 +888,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -899,10 +903,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -915,10 +919,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -930,10 +934,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -945,16 +949,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -962,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -977,10 +981,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -992,10 +996,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -1007,10 +1011,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1022,16 +1026,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1039,10 +1043,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1054,10 +1058,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -1069,10 +1073,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1084,7 +1088,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1093,10 +1097,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Multiplying numbers reported by the user  &gt; In this document you find the code for muliplying numbers reported by the user.</t>
   </si>
   <si>
-    <t>With this list you can search for the code you need and identify quickly the name of the file you should download.</t>
-  </si>
-  <si>
     <t>List of code</t>
   </si>
   <si>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>List_1_EX_11</t>
+  </si>
+  <si>
+    <t>Division of two numbers entered by the user  &gt; This document has the code to make the division of numbers entered by the user.</t>
+  </si>
+  <si>
+    <t>With this list you can search for the code you need and quickly identify  the name of the file you should download.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -676,7 +679,7 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -684,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -696,7 +699,7 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -704,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -721,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -738,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -755,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -764,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -772,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>57</v>
@@ -781,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -789,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>56</v>
@@ -807,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>58</v>
@@ -824,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -841,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -866,7 +869,9 @@
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Lista_1_EX_14</t>
-  </si>
-  <si>
-    <t>Calculadora de quando terá 80 anos</t>
-  </si>
-  <si>
-    <t>Calculadora de média</t>
   </si>
   <si>
     <t>Lista_1_EX_15</t>
@@ -207,6 +201,9 @@
     <t>Multiplying numbers reported by the user  &gt; In this document you find the code for muliplying numbers reported by the user.</t>
   </si>
   <si>
+    <t>With this list you can search for the code you need and identify quickly the name of the file you should download.</t>
+  </si>
+  <si>
     <t>List of code</t>
   </si>
   <si>
@@ -240,7 +237,13 @@
     <t>Division of two numbers entered by the user  &gt; This document has the code to make the division of numbers entered by the user.</t>
   </si>
   <si>
-    <t>With this list you can search for the code you need and quickly identify  the name of the file you should download.</t>
+    <t>Calculadora de média escolar</t>
+  </si>
+  <si>
+    <t>Calcula a média das notas escolares de um aluno.</t>
+  </si>
+  <si>
+    <t>Calculadora de quando você terá 80 anos</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -667,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -676,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -687,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -696,10 +699,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -707,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -716,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -724,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -733,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -741,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -750,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -758,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -767,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -775,16 +778,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -792,17 +795,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -810,16 +813,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -827,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -836,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -844,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -853,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -870,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -896,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -908,15 +911,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:6">
@@ -924,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -939,10 +944,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -954,16 +959,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -971,10 +976,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -986,10 +991,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -1001,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -1016,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1031,16 +1036,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1048,10 +1053,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1063,10 +1068,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -1078,10 +1083,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1093,7 +1098,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1102,10 +1107,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Lista_1_EX_13</t>
-  </si>
-  <si>
-    <t>Subtrator de numeros informados pelo usuário</t>
   </si>
   <si>
     <t>Multiplicador de numeros informados pelo usuário</t>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>Calculadora de quando você terá 80 anos</t>
+  </si>
+  <si>
+    <t>Subtraindo de numeros informados pelo usuário</t>
+  </si>
+  <si>
+    <t>Subtraction of two numbers by user input &gt; In this code the user enters two numbers and the program subtract them.</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -670,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -679,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -690,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -699,10 +702,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -710,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -719,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -727,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -736,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -744,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -753,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -761,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -770,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -778,16 +781,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -795,17 +798,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -813,16 +816,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -830,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -847,16 +850,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -867,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -884,22 +887,24 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -911,16 +916,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -929,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -944,10 +949,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -959,16 +964,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -976,10 +981,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -991,10 +996,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -1006,10 +1011,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -1021,10 +1026,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1036,16 +1041,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1053,10 +1058,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1068,10 +1073,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
@@ -1083,10 +1088,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1098,7 +1103,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1107,10 +1112,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F29" s="1"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Calculadora de média escolar</t>
   </si>
   <si>
-    <t>Calcula a média das notas escolares de um aluno.</t>
-  </si>
-  <si>
     <t>Calculadora de quando você terá 80 anos</t>
   </si>
   <si>
@@ -247,6 +244,19 @@
   </si>
   <si>
     <t>Subtraction of two numbers by user input &gt; In this code the user enters two numbers and the program subtract them.</t>
+  </si>
+  <si>
+    <t>Calculator of when you will be 80 (eighty)  years old &gt; With this program you can know in which year you will be 80 years old.</t>
+  </si>
+  <si>
+    <t>Cadastra o usuário utilizando os dados que ele insere no programa e depois calcula o IMC.</t>
+  </si>
+  <si>
+    <t>Corrigir código</t>
+  </si>
+  <si>
+    <t>Calculating the grade point average
+Calculating the average of two school grades of a student that the teacher enters into the system.</t>
   </si>
 </sst>
 </file>
@@ -262,12 +272,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +310,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -887,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -904,14 +923,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -924,8 +945,8 @@
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -942,7 +963,9 @@
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -1075,13 +1098,16 @@
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Lista_1_EX_16</t>
-  </si>
-  <si>
-    <t>Calculadora de IMC</t>
   </si>
   <si>
     <t>Lista_1_EX_17</t>
@@ -234,9 +231,6 @@
     <t>Division of two numbers entered by the user  &gt; This document has the code to make the division of numbers entered by the user.</t>
   </si>
   <si>
-    <t>Calculadora de média escolar</t>
-  </si>
-  <si>
     <t>Calculadora de quando você terá 80 anos</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
   </si>
   <si>
     <t>Calculator of when you will be 80 (eighty)  years old &gt; With this program you can know in which year you will be 80 years old.</t>
-  </si>
-  <si>
-    <t>Cadastra o usuário utilizando os dados que ele insere no programa e depois calcula o IMC.</t>
   </si>
   <si>
     <t>Corrigir código</t>
@@ -257,6 +248,18 @@
   <si>
     <t>Calculating the grade point average
 Calculating the average of two school grades of a student that the teacher enters into the system.</t>
+  </si>
+  <si>
+    <t>Calculating body mass index &gt; The user enters their own height (metter) and weight (kilograms) into the system and the program calculates the Body Mass Index (BMI).</t>
+  </si>
+  <si>
+    <t>Calculadora de média escolar - Grade point Average Calculator</t>
+  </si>
+  <si>
+    <t>Calculadora de IMC - BMI Calculator</t>
+  </si>
+  <si>
+    <t>Programa para calcular a quantidade de latas de tintas necessárias para pintar uma parede.</t>
   </si>
 </sst>
 </file>
@@ -654,14 +657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
@@ -684,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -692,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -701,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -712,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -721,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -732,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -741,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -758,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -766,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -775,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -783,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -792,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -800,16 +803,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -817,17 +820,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -835,16 +838,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -852,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -861,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -869,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -878,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -895,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -906,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -923,13 +926,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
@@ -940,13 +943,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -958,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -972,31 +975,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1004,10 +1009,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -1019,10 +1024,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -1034,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -1049,10 +1054,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1064,16 +1069,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,10 +1086,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1096,17 +1101,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1114,10 +1119,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1129,7 +1134,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1138,10 +1143,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F29" s="1"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -259,7 +259,8 @@
     <t>Calculadora de IMC - BMI Calculator</t>
   </si>
   <si>
-    <t>Programa para calcular a quantidade de latas de tintas necessárias para pintar uma parede.</t>
+    <t>Calculating how many paint cans to buy &gt; With this program the user informs width and heigth of wall and receives the information of how many cans of paint he needs to buy 
+to paint the wall</t>
   </si>
 </sst>
 </file>
@@ -657,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,7 +971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -983,7 +984,7 @@
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Code analysis</t>
   </si>
   <si>
-    <t>Is the number even or odd ?  &gt;  With this code the user can identify whether the number is even or odd.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &gt;  This code can be used for validate whether the year is a leap year or not.</t>
   </si>
   <si>
@@ -261,6 +258,12 @@
   <si>
     <t>Calculating how many paint cans to buy &gt; With this program the user informs width and heigth of wall and receives the information of how many cans of paint he needs to buy 
 to paint the wall</t>
+  </si>
+  <si>
+    <t>Identify whether the number is even or odd  &gt;  In this program the user enters a number and the code identifies whether the number is even or odd.</t>
+  </si>
+  <si>
+    <t>O usuário informa a idade e o programa identifica se o usuário tem direito a gratuidade no transporte público.</t>
   </si>
 </sst>
 </file>
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -696,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -708,7 +711,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -716,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -728,7 +731,7 @@
         <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -736,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -753,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -770,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -787,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -796,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -804,16 +807,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -821,17 +824,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -839,16 +842,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -856,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -865,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -873,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -882,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -899,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -910,13 +913,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -927,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
@@ -944,13 +947,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -962,13 +965,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -985,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1002,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1018,7 +1021,9 @@
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
@@ -1079,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1112,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -84,16 +84,7 @@
     <t>Calculadora de Latas de Tinta</t>
   </si>
   <si>
-    <t>Lista_2_EX_1</t>
-  </si>
-  <si>
     <t>Identificando se o número é par ou ímpar</t>
-  </si>
-  <si>
-    <t>Lista_2_EX_2</t>
-  </si>
-  <si>
-    <t>Gratuidade no transporte público</t>
   </si>
   <si>
     <t>Lista_2_EX_3</t>
@@ -263,7 +254,16 @@
     <t>Identify whether the number is even or odd  &gt;  In this program the user enters a number and the code identifies whether the number is even or odd.</t>
   </si>
   <si>
-    <t>O usuário informa a idade e o programa identifica se o usuário tem direito a gratuidade no transporte público.</t>
+    <t>Gratuidade na passagem do transporte público para idosos</t>
+  </si>
+  <si>
+    <t>Free public transport tickets for the elderly &gt; The user enters his age and the program verifies if he is entitled to free public transport tickets.</t>
+  </si>
+  <si>
+    <t>List_2_EX_1</t>
+  </si>
+  <si>
+    <t>List_2_EX_2</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -708,10 +708,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -782,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -799,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -807,16 +807,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -824,17 +824,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -842,16 +842,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -876,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -913,13 +913,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -930,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
@@ -947,13 +947,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -965,13 +965,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -996,16 +996,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1013,16 +1013,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1030,10 +1030,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -1045,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
@@ -1060,10 +1060,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1075,16 +1075,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1092,10 +1092,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1107,17 +1107,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1125,10 +1125,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1140,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1149,10 +1149,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>List_2_EX_2</t>
+  </si>
+  <si>
+    <t>O programa solicita as notas das matérias escolares e no final informa se o aluno está aprovado, reprovado ou de recuperação.</t>
+  </si>
+  <si>
+    <t>Assessing student performance &gt; Teachers enter students grades and program calculates the average of those students grades. After calculating the grade point average, the program informs if the student is approved, failed or goes to summer school.</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,13 +328,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -661,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,7 +683,7 @@
     <col min="3" max="3" width="60.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -690,7 +702,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -727,7 +739,7 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
@@ -747,7 +759,7 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -764,7 +776,7 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -781,7 +793,7 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -798,7 +810,7 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -815,7 +827,7 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -833,7 +845,7 @@
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -850,7 +862,7 @@
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -884,11 +896,11 @@
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -901,7 +913,7 @@
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -918,7 +930,7 @@
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -935,7 +947,7 @@
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -957,7 +969,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -970,7 +982,7 @@
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -991,7 +1003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1004,11 +1016,11 @@
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1021,7 +1033,7 @@
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1038,9 +1050,11 @@
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1053,7 +1067,9 @@
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -1068,7 +1084,7 @@
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -1083,7 +1099,7 @@
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1100,7 +1116,7 @@
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
@@ -1116,7 +1132,7 @@
       <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1133,7 +1149,7 @@
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -1142,7 +1158,7 @@
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
@@ -1154,385 +1170,385 @@
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Lista_2_EX_4</t>
-  </si>
-  <si>
-    <t>Calcula desconto conforme idade</t>
   </si>
   <si>
     <t>Lista_2_EX_5</t>
@@ -266,10 +263,17 @@
     <t>List_2_EX_2</t>
   </si>
   <si>
-    <t>O programa solicita as notas das matérias escolares e no final informa se o aluno está aprovado, reprovado ou de recuperação.</t>
-  </si>
-  <si>
     <t>Assessing student performance &gt; Teachers enter students grades and program calculates the average of those students grades. After calculating the grade point average, the program informs if the student is approved, failed or goes to summer school.</t>
+  </si>
+  <si>
+    <t>O cliente insere a idade e o programa calcula qual será o desconto e informa o valor final do produto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula desconto conforme idade </t>
+  </si>
+  <si>
+    <t>Calculates the discount according to age - The customer enters the age in the program and the code calculates
+the percentage of discount on the product conform the age of the customer. At the end the system informs the initial price and the final price at a discount</t>
   </si>
 </sst>
 </file>
@@ -673,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -703,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -711,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -720,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -731,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -740,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -751,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -760,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -768,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -777,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -785,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -794,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -802,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -811,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -819,16 +823,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -836,17 +840,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -854,16 +858,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -871,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -880,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -888,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -897,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -914,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -925,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -942,13 +946,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
@@ -959,13 +963,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -977,13 +981,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -1000,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -1008,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -1017,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -1025,19 +1029,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:6" ht="44.25" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45.75" customHeight="1">
@@ -1062,13 +1066,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1076,31 +1080,33 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1108,10 +1114,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1123,17 +1129,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1141,10 +1147,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1156,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1165,10 +1171,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F29" s="3"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Multiplicador de numeros informados pelo usuário</t>
   </si>
   <si>
-    <t>Somador de numeros informados pelo usuário</t>
-  </si>
-  <si>
     <t>Divisor de numeros informados pelo usuário</t>
   </si>
   <si>
@@ -87,19 +84,7 @@
     <t>Identificando se o número é par ou ímpar</t>
   </si>
   <si>
-    <t>Lista_2_EX_3</t>
-  </si>
-  <si>
     <t>Avaliando desempenho de alunos</t>
-  </si>
-  <si>
-    <t>Lista_2_EX_4</t>
-  </si>
-  <si>
-    <t>Lista_2_EX_5</t>
-  </si>
-  <si>
-    <t>Calcula reajuste salarial</t>
   </si>
   <si>
     <t>Identificar se um ano é bissexto ou não</t>
@@ -266,14 +251,40 @@
     <t>Assessing student performance &gt; Teachers enter students grades and program calculates the average of those students grades. After calculating the grade point average, the program informs if the student is approved, failed or goes to summer school.</t>
   </si>
   <si>
-    <t>O cliente insere a idade e o programa calcula qual será o desconto e informa o valor final do produto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calcula desconto conforme idade </t>
   </si>
   <si>
     <t>Calculates the discount according to age - The customer enters the age in the program and the code calculates
 the percentage of discount on the product conform the age of the customer. At the end the system informs the initial price and the final price at a discount</t>
+  </si>
+  <si>
+    <t>List_2_EX_3</t>
+  </si>
+  <si>
+    <t>List_2_EX_4</t>
+  </si>
+  <si>
+    <t>List_2_EX_5</t>
+  </si>
+  <si>
+    <t>list_4_EX_1</t>
+  </si>
+  <si>
+    <t>"Trabalhando com conjuntos de dados"'</t>
+  </si>
+  <si>
+    <t>list_4_EX_2</t>
+  </si>
+  <si>
+    <t>Calculando aumento salarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculating salary increase. This program calculates the percentage of increase in salary according to salary range.                                                            • Salary up to $1,499.00 - increase of 25% 
+• Salary Between R$1,500.00 and R$1,999.99 -Increase of 20%
+• Salary Between R$2,000.00 and R$2,999.99 -  Increase of 15%
+• Salary Between R$3,000.00 and R$4,999.99 - 10% increase
+• Salary greater than BRL 5,000.00 -  5% increase
+</t>
   </si>
 </sst>
 </file>
@@ -677,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
@@ -715,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -724,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -735,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -744,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -755,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -764,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -772,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -781,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -789,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -798,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -806,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -815,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -823,16 +834,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -840,17 +851,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -858,16 +869,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -875,16 +886,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -892,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -901,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -912,13 +923,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -929,13 +940,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -943,16 +954,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30">
@@ -960,16 +971,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -978,16 +989,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45">
@@ -995,16 +1006,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -1012,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -1029,16 +1040,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="44.25" customHeight="1">
@@ -1046,16 +1057,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45.75" customHeight="1">
@@ -1063,33 +1074,33 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1097,16 +1108,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1114,10 +1125,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1129,17 +1140,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1147,10 +1158,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
@@ -1162,7 +1173,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1171,10 +1182,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -1248,11 +1259,20 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F42" s="3"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -285,6 +285,9 @@
 • Salary Between R$3,000.00 and R$4,999.99 - 10% increase
 • Salary greater than BRL 5,000.00 -  5% increase
 </t>
+  </si>
+  <si>
+    <t>Com este programa você pode confirmar se uma data realmente existe ou se a mesma não pertence ao calendário.</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,7 +1136,9 @@
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Com este programa você pode confirmar se uma data realmente existe ou se a mesma não pertence ao calendário.</t>
+  </si>
+  <si>
+    <t>List_3_Ex_4</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,6 +1200,9 @@
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F30" s="3"/>
     </row>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>List_3_Ex_4</t>
+  </si>
+  <si>
+    <t>Jogo de Pedra, Papel e Tesoura com outra lógica.</t>
+  </si>
+  <si>
+    <t>List_3_EX_3+</t>
+  </si>
+  <si>
+    <t>JOKENNNNNPÔ VERSÃO 2</t>
+  </si>
+  <si>
+    <t>Jogo de Pedra, Papel e Tesoura.</t>
   </si>
 </sst>
 </file>
@@ -390,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F93" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F93">
     <filterColumn colId="1"/>
     <filterColumn colId="5"/>
   </autoFilter>
@@ -692,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,6 +1195,9 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
@@ -1195,397 +1210,428 @@
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F93" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Some Useful Codes/List of codes.xlsx
+++ b/Some Useful Codes/List of codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>N°DO EXERCÍCIO</t>
   </si>
@@ -303,6 +303,27 @@
   </si>
   <si>
     <t>Jogo de Pedra, Papel e Tesoura.</t>
+  </si>
+  <si>
+    <t>List_3_Ex_5</t>
+  </si>
+  <si>
+    <t>Jogo da Forca</t>
+  </si>
+  <si>
+    <t>Crie um programa de forca onde são disponibilizadas 10 tentativas para o seu oponente acertar a 
+palavra.</t>
+  </si>
+  <si>
+    <t>Jogo de Luta entre usuario e PC</t>
+  </si>
+  <si>
+    <t>Neste jogo você deverá comparar o poder de combate em cada turno, quem ganhar desfere o ataque no oponente causando o dano respectivo.
+Você tem dois ataques, que poderá selecionar no início de cada rodada:
+1. Cabeçada: Tem poder de combate 3, se ganhar tira 3 de vida do oponente e toma 1 de dano.
+2. Soco: Tem poder de combate aleatório (jogar no dado D6) e caso ganhe causa dano aleatório (jogar no dado D6).
+O computador tem apenas o ataque Soco.
+Quem chegar a 0 pontos de vida perde o jogo.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +387,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,26 +1261,40 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
+    <row r="31" spans="1:6" s="10" customFormat="1" ht="105">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="C31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
